--- a/Lab5ExcelPDF/invoiceData.xlsx
+++ b/Lab5ExcelPDF/invoiceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\automatizari\RPA\Lab5ExcelPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\RPA\Lab5ExcelPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE5A03-E60C-49D7-A02C-5FB261A9C4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85643752-AD71-4FC8-9C3C-612147003C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{23ABC356-DB9E-405E-8DF8-89C8DFB13840}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{F1477C9F-37C5-4124-AEC1-86E26F15E399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>nr. 0028</t>
+  </si>
+  <si>
+    <t>26/11/2019</t>
+  </si>
   <si>
     <t>Nr aviz: 123456</t>
+  </si>
+  <si>
+    <t>nr. 0027</t>
+  </si>
+  <si>
+    <t>28/03/2008</t>
+  </si>
+  <si>
+    <t>Nr aviz: 312312</t>
+  </si>
+  <si>
+    <t>nr. 0001</t>
   </si>
 </sst>
 </file>
@@ -384,21 +402,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC5680C-E068-4905-AF59-029B45D08C31}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2ECE6-C3C4-41C3-91E6-DAFA41870437}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Lab5ExcelPDF/invoiceData.xlsx
+++ b/Lab5ExcelPDF/invoiceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\RPA\Lab5ExcelPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85643752-AD71-4FC8-9C3C-612147003C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26BD27B-CA7E-41DC-8D06-4065DB116203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{F1477C9F-37C5-4124-AEC1-86E26F15E399}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{F1477C9F-37C5-4124-AEC1-86E26F15E399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Lab5ExcelPDF/invoiceData.xlsx
+++ b/Lab5ExcelPDF/invoiceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\RPA\Lab5ExcelPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26BD27B-CA7E-41DC-8D06-4065DB116203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A641C-065C-476C-BFAD-DD9982DACD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{F1477C9F-37C5-4124-AEC1-86E26F15E399}"/>
   </bookViews>
